--- a/biology/Médecine/Louise_Kassis/Louise_Kassis.xlsx
+++ b/biology/Médecine/Louise_Kassis/Louise_Kassis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louise Kassis, née le 26 décembre 1924 à Alger (Algérie) et morte le 16 mars 1991 à Bagnolet, est une des fondatrices de l'odontologie moderne, au niveau de la prothèse conjointe[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louise Kassis, née le 26 décembre 1924 à Alger (Algérie) et morte le 16 mars 1991 à Bagnolet, est une des fondatrices de l'odontologie moderne, au niveau de la prothèse conjointe.
 </t>
         </is>
       </c>
@@ -511,18 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louise Kassis est née le 26 décembre 1924 à Alger (Algérie). Elle est la fille de Maklouf Kassis et de Clémentine Kassis. Maklouf Kassis est né le 26 avril 1903 à Lamoricière, aujourd'hui Ouled Mimoun, une commune du département d'Oran en Algérie. Clémentine Kassis (née Djaoui) est née le 23 novembre 1902 à Tunis. Sa sœur, Hughette Kassis est née le 3 mai 1926 à Alger[2].  
-Paris
-En 1928, la famille s'installe à Paris.
-Seconde Guerre mondiale
-En 1939, elle est en primaire supérieure à Pantin. Sa famille s'installe en 1940 dans le Berry, puis à Marseille, où Louise reprend ses études. La famille vit  dans le quartier de la Blancarde, durant trois ans et demi.
-À la suite d'une dénonciation par la propriétaire du salon de coiffure, la famille Kassis est arrêtée à en mars 1944 puis incarcérée durant dix jours à la prison des baumettes et ensuite transférée par train à Drancy où elle reste environ quinze jours.
-Le 13 avril 1944, ils sont envoyés vers le camp de concentration d'Auschwitz-Birkenau où ils arrivent le 15 avril, par le convoi numéro 71[3]. Leur dernière adresse est au 15, boulevard Freyssinet à Marseille[2].
-Ses parents, sa sœur et elle survivent tous à la déportation et sont de retour en France en juin 1945. Louise passe son baccalauréat et est diplômée de la faculté de médecine de Paris en 1949.
-Activités professionnelles
-Elle devient attachée universitaire à l'école dentaire de Garancière, Paris-Diderot. Elle est professeur à l'université à René Descartes Paris V de 1969 à 1989. En 1974, elle crée le centre de soins dentaire de l’hôpital Charles Foix, à Ivry-sur-seine[4]. En 1975, elle obtient son doctorat de troisième cycle[5], avec une thèse intitulée Contribution à l'étude morphologique et histologique de deux types de limites cervicales destinées à la prothèse conjointe, sous la direction de Pierre Cernéa.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louise Kassis est née le 26 décembre 1924 à Alger (Algérie). Elle est la fille de Maklouf Kassis et de Clémentine Kassis. Maklouf Kassis est né le 26 avril 1903 à Lamoricière, aujourd'hui Ouled Mimoun, une commune du département d'Oran en Algérie. Clémentine Kassis (née Djaoui) est née le 23 novembre 1902 à Tunis. Sa sœur, Hughette Kassis est née le 3 mai 1926 à Alger.  
 </t>
         </is>
       </c>
@@ -548,10 +553,126 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Paris</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1928, la famille s'installe à Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Louise_Kassis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louise_Kassis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Seconde Guerre mondiale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1939, elle est en primaire supérieure à Pantin. Sa famille s'installe en 1940 dans le Berry, puis à Marseille, où Louise reprend ses études. La famille vit  dans le quartier de la Blancarde, durant trois ans et demi.
+À la suite d'une dénonciation par la propriétaire du salon de coiffure, la famille Kassis est arrêtée à en mars 1944 puis incarcérée durant dix jours à la prison des baumettes et ensuite transférée par train à Drancy où elle reste environ quinze jours.
+Le 13 avril 1944, ils sont envoyés vers le camp de concentration d'Auschwitz-Birkenau où ils arrivent le 15 avril, par le convoi numéro 71. Leur dernière adresse est au 15, boulevard Freyssinet à Marseille.
+Ses parents, sa sœur et elle survivent tous à la déportation et sont de retour en France en juin 1945. Louise passe son baccalauréat et est diplômée de la faculté de médecine de Paris en 1949.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louise_Kassis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louise_Kassis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Activités professionnelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle devient attachée universitaire à l'école dentaire de Garancière, Paris-Diderot. Elle est professeur à l'université à René Descartes Paris V de 1969 à 1989. En 1974, elle crée le centre de soins dentaire de l’hôpital Charles Foix, à Ivry-sur-seine. En 1975, elle obtient son doctorat de troisième cycle, avec une thèse intitulée Contribution à l'étude morphologique et histologique de deux types de limites cervicales destinées à la prothèse conjointe, sous la direction de Pierre Cernéa.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louise_Kassis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louise_Kassis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Chevalier de l'ordre national du Mérite
 Amphithéâtre Louise Kassis à l'hôpital Charles-Foix, inauguré en 2013</t>
